--- a/data/trans_orig/ESP_NAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ESP_NAT-Clase-trans_orig.xlsx
@@ -4148,97 +4148,97 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K34" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>1139</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>1165</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4635,12 +4635,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">

--- a/data/trans_orig/ESP_NAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ESP_NAT-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Espacios naturales en C.Valenciana</t>
+          <t>Espacios naturales en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
